--- a/Scripts/python/SourceTables/ChimeraTechniques.xlsx
+++ b/Scripts/python/SourceTables/ChimeraTechniques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\vscodespace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Obsidian\Perfect_World_Mobile_RU_Database\Scripts\python\SourceTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>99</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>111</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>113</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>149</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>151</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>153</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>157</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>159</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>165</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>167</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>171</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>179</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>181</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>183</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>185</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>187</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>189</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>191</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>195</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>201</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>203</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>211</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>213</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>217</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>219</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>221</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>228</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>230</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>232</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>234</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>236</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>238</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>240</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>242</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>244</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>246</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>248</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>250</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>252</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>254</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>256</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>260</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>262</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>266</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>268</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>270</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>272</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>278</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>284</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>286</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>288</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>290</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>292</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>294</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>296</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>298</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>300</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>302</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>304</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>306</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>308</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>310</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>312</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>314</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>316</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>318</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>320</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>322</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>324</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>326</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>328</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>330</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>332</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="99" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>334</v>
       </c>
